--- a/State Modelling.xlsx
+++ b/State Modelling.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2680" windowWidth="26960" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="10740" yWindow="7860" windowWidth="26960" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
   <si>
     <t>State ID</t>
   </si>
@@ -66,16 +66,35 @@
   </si>
   <si>
     <t>Red</t>
+  </si>
+  <si>
+    <t>Default value when there are no matches, for example occasionally we get input = {}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,13 +117,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I13"/>
+  <dimension ref="A3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,7 +444,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -441,7 +464,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -461,7 +484,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -481,7 +504,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -501,7 +524,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -521,7 +544,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -541,7 +564,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -561,7 +584,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -577,6 +600,14 @@
       </c>
       <c r="G13" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
